--- a/datafiles/platformMgtData.xlsx
+++ b/datafiles/platformMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="getAboutInfo" sheetId="30" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1598,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1660,7 +1660,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>100102</v>
+        <v>223002</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -1889,7 +1889,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/datafiles/platformMgtData.xlsx
+++ b/datafiles/platformMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="getAboutInfo" sheetId="30" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>{"id":[99999999]}</t>
   </si>
   <si>
-    <t>密钥id不存在</t>
-  </si>
-  <si>
     <t>密钥管理-删除密钥-成功</t>
   </si>
   <si>
@@ -201,7 +198,7 @@
 }</t>
   </si>
   <si>
-    <t>原始密码错误</t>
+    <t>原始密码有误</t>
   </si>
   <si>
     <t>密码管理-修改密码-新密码为空</t>
@@ -268,38 +265,10 @@
 }</t>
   </si>
   <si>
+    <t>密码长度不能小于6位且不能大于18位</t>
+  </si>
+  <si>
     <t>008</t>
-  </si>
-  <si>
-    <t>密码管理-修改密码-新密码大于18位</t>
-  </si>
-  <si>
-    <t>{   "password":"P@ssw0rd",
-    "new_password":"11112222333344445555",
-    "confirmPassword":"11112222333344445555"
-}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
   </si>
   <si>
     <t>密码管理-修改密码-确认密码小于6位</t>
@@ -312,13 +281,7 @@
 }</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>密码管理-修改密码-确认密码大于18位</t>
-  </si>
-  <si>
-    <t>011</t>
+    <t>009</t>
   </si>
   <si>
     <t>密码管理-修改密码-成功</t>
@@ -329,6 +292,24 @@
     "new_password":"P@ssw0rd",
     "confirmPassword":"P@ssw0rd"
 }</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>密码管理-修改密码-新密码大于18位</t>
+  </si>
+  <si>
+    <t>{   "password":"P@ssw0rd",
+    "new_password":"11112222333344445555",
+    "confirmPassword":"11112222333344445555"
+}</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>密码管理-修改密码-确认密码大于18位</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1660,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>223002</v>
+        <v>236001</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
@@ -1733,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1796,10 +1777,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="2">
-        <v>10022656</v>
+        <v>236001</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
@@ -1807,7 +1788,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>33</v>
@@ -1868,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1889,8 +1870,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1926,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -1946,16 +1927,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
@@ -1963,16 +1944,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="2">
+        <v>220017</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1017</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="67.5" spans="1:5">
@@ -1980,70 +1961,70 @@
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="2">
         <v>220003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="67.5" spans="1:5">
       <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>220003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="67.5" spans="1:5">
       <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>220003</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="67.5" spans="1:5">
       <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="2">
+        <v>1012</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:5">
+    </row>
+    <row r="9" ht="67.5" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -2054,10 +2035,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="2">
-        <v>1001</v>
+        <v>220003</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:5">
@@ -2071,11 +2052,9 @@
         <v>62</v>
       </c>
       <c r="D10" s="2">
-        <v>220003</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="4" t="s">
@@ -2085,29 +2064,31 @@
         <v>64</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="1:5">
       <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>1012</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
